--- a/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_en.xlsx
+++ b/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_en.xlsx
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.417754417394173</v>
+        <v>0.4204121641171932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03410699774152048</v>
+        <v>0.03332868886235073</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4169199295412982</v>
+        <v>0.4322383220731281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.040851725542712</v>
+        <v>0.03830143231969291</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2905912646926248</v>
+        <v>0.2893684452516612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0383146650064126</v>
+        <v>0.03860397041469778</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1171141459750361</v>
+        <v>0.1088136379549978</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007005418599672123</v>
+        <v>0.005896378378348267</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3667441744952342</v>
+        <v>0.3628367180329777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03543465329826503</v>
+        <v>0.03325554524205449</v>
       </c>
     </row>
     <row r="7">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3455613757015648</v>
+        <v>0.3474350815563642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03500360630068414</v>
+        <v>0.03430574840271283</v>
       </c>
     </row>
     <row r="8">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2934470309565068</v>
+        <v>0.2913451432555323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02665925853519464</v>
+        <v>0.02751894411734576</v>
       </c>
     </row>
     <row r="9">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3389879354437732</v>
+        <v>0.3418084041682332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03170786292783727</v>
+        <v>0.03190035775320327</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3402102710456624</v>
+        <v>0.3406803016741942</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03319027515834785</v>
+        <v>0.03264147796522725</v>
       </c>
     </row>
     <row r="11">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3637531811228953</v>
+        <v>0.3614019632164389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0349789509843414</v>
+        <v>0.03480901428347037</v>
       </c>
     </row>
     <row r="12">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3243592884078283</v>
+        <v>0.325298084269908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04359503131477401</v>
+        <v>0.04273781136321327</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2958857186280384</v>
+        <v>0.2919811401231256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0380538171368766</v>
+        <v>0.03605901826178743</v>
       </c>
     </row>
     <row r="14">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.363818207325206</v>
+        <v>0.3733976287152304</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04364026998773964</v>
+        <v>0.04496759745240934</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2977225595180547</v>
+        <v>0.2970573091763072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03956702713423918</v>
+        <v>0.03844882664813536</v>
       </c>
     </row>
     <row r="16">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3287146817328012</v>
+        <v>0.3288619934991713</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0338310964164503</v>
+        <v>0.0339029402329112</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3377907796667232</v>
+        <v>0.3381611340876131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0374560714590392</v>
+        <v>0.03792780070479645</v>
       </c>
     </row>
     <row r="18">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3206091415875592</v>
+        <v>0.3199774893706664</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03266138687699205</v>
+        <v>0.03263726040414736</v>
       </c>
     </row>
     <row r="19">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3776923234255743</v>
+        <v>0.3790901624290487</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03474249804583454</v>
+        <v>0.03331216133438779</v>
       </c>
     </row>
     <row r="20">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3472296117829827</v>
+        <v>0.3534178273681949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04081223105581507</v>
+        <v>0.04175360160975795</v>
       </c>
     </row>
     <row r="21">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1170261112069504</v>
+        <v>0.1079581305705642</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007289221912894375</v>
+        <v>0.006079300191134812</v>
       </c>
     </row>
     <row r="22">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2999643924347353</v>
+        <v>0.2968816130868387</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01432606721242999</v>
+        <v>0.01461825333056377</v>
       </c>
     </row>
     <row r="23">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2399839350953698</v>
+        <v>0.2538960120640695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02482017010476488</v>
+        <v>0.02450798910317762</v>
       </c>
     </row>
     <row r="24">
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3184904894308874</v>
+        <v>0.3170758221353039</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03716956502879653</v>
+        <v>0.03693827196928601</v>
       </c>
     </row>
     <row r="25">
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4274134804588054</v>
+        <v>0.4445277697314547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04007483886584993</v>
+        <v>0.03646076340381461</v>
       </c>
     </row>
   </sheetData>
@@ -998,338 +998,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What is J. K. Rowling's real name?</t>
+          <t>How many movies are there in the Nolan trilogy of Batman?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J.K Rowling</t>
+          <t>3 movies in the Nolan trilogy of Batman:  1. Batman Begins (2005) 2. The Dark Knight (2008) 3. The Dark Knight Rises (2012)  Confidence score: 9/10  Explanation: I'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>J.K. Rowling</t>
+          <t>3 Confidence Score: 85%  Explanation: The Nolan trilogy consists of Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012). There are three movies in the trilogy. The confidence score'</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J.K. Rowling</t>
+          <t>3. The trilogy includes Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012).  Confidence Score: * There is a 100% chance of accuracy for the answer "The Nolan trilogy of'</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J.K. Rowling</t>
+          <t>3 movies: Batman Begins, The Dark Knight, and The Dark Knight Rises. Confidence score: 99.0% (high confidence, as it is a well-known and widely accepted piece of film trivia)'</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>3 movies - Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012).   Confidence score: 100  Explanation: I am confident that the answer is 3 movies, as I have verified the'</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9167dc04</t>
+          <t>081b9f5c</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>3, Batman Begins, The Dark Knight, The Dark Knight Rises</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.9906891584396362</t>
+          <t>0.8080029487609863</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7814136743545532</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7953795194625854</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8537306785583496</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8487640619277954</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>movies</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.9981378316879272</t>
+          <t>0.817458176612854</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What was Taylor Swift's first album?</t>
+          <t>How many games are in the Call of Duty Black Ops story arc?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>12 games in the Call of Duty Black Ops story arc, including the five main games and 7 downloadable content (DLC) games.'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taylor Swift\</t>
+          <t>12. There are 12 games in the Call of Duty Black Ops story arc, including the base game and the expansion packs, which are:  - Call of Duty: Black Ops (20012) - Call of Duty: Black Ops: Declass'</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>10 games in the Black Ops series, including: - Call of Duty: Black Ops (2010) - Call of Duty: Black Ops II (2012) - Call of Duty: Black Ops III (2015) - Call of Duty:'</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>7 games in the Black Ops series, with a 5th game (Black Ops III) not being a part of the main storyline.  Confidence Score: 8/10  Explanation: I'm fairly confident that the answer is 7 games"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taylor Swift\</t>
+          <t>12 games Confidence Score: 98%  Explanation: Call of Duty: Black Ops is a first-person shooter that revolves around the story of a secret organization known as "The Shadow Syndicate". The games in the series follow the story of various'</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2c6f5c06</t>
+          <t>a1f20391</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>6, Call of Duty: World at War, Call of Duty: Black Ops, Call of Duty: Black Ops II, Call of Duty: Black Ops III, Call of Duty: Black Ops 4, Call of Duty: Black Ops Cold War</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7893412113189697</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.8824464678764343</t>
+          <t>0.8509726524353027</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8982502818107605</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7271307706832886</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.8824464678764343</t>
+          <t>0.7226483821868896</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>videogames</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.7976686596870423</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>False</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.9529785871505737</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What is Nina Simone's real name?</t>
+          <t>How many Metal Gear Solid games are there?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nina Simone</t>
+          <t>6. There are currently 6 main games in the Metal Gear Solid series, with several spin-off games, prequels, and remakes.  Confidence Score: I would rate the accuracy of this answer as 9 out of 10.'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nina Simone</t>
+          <t>3 (Metal Gear Solid, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 4: Guns of the Patriots)   Confidence score: Very High (100%)  Explanation: There are three canonical Metal Gear Solid games, which are widely recognized'</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nina Simone\</t>
+          <t>9 games (Metal Gear Solid: The Twin Snakes, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 3: Snake Eater, Metal Gear Solid: Peace Walker, Metal Gear Solid: Ground Zeroes, Metal Gear Solid'</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nina Simone is known by several names including Nina Simone, Nina Simone, and Nina Simone. Confidence Score: 8.5/10 Reasoning: Nina Simone is a well-known musician, singer, and pianist, and her real name</t>
+          <t>6 Confidence Score: 0.9 (very confident)  Explanation: There have been six mainline Metal Gear Solid games released by Konami, as well as several spin-off titles and remakes. The series has a dedicated fan base and'</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nina Simone</t>
+          <t>4.   Note: There are also Metal Gear Solid: Peace Walker and Metal Gear Solid V: Ground Zeroes and The Phantom Pain, but these are not part of the main series.  Confidence score: 8/10  Explanation: The'</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nina Simone</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32c1d991</t>
+          <t>40a885cc</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nina Simone</t>
+          <t>11, Metal Gear Solid, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 3: Snake Eater, Metal Gear Solid 4: Guns of the Patriots, Metal Gear Solid V: The Phantom Pain</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.9999999403953552</t>
+          <t>0.776006817817688</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.9999999403953552</t>
+          <t>0.7885230779647827</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.9253283739089966</t>
+          <t>0.8541622161865234</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.5266466736793518</t>
+          <t>0.6845145225524902</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7389359474182129</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>videogames</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.7684285163879394</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>False</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.8903949856758118</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>How many movies are there in the Nolan trilogy of Batman?</t>
+          <t>How many movies are there in Peter Jackson's Hobbit movie series?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 movies in the Nolan trilogy of Batman:  1. Batman Begins (2005) 2. The Dark Knight (2008) 3. The Dark Knight Rises (2012)  Confidence score: 9/10  Explanation: I</t>
+          <t>3 movies:  1. The Hobbit (2012) 2. The Desolation of Smaug (2013) 3. The Battle of the Five Armies (2014)   Confidence score: 0.95   Confidence score explanation'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3 Confidence Score: 85%  Explanation: The Nolan trilogy consists of Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012). There are three movies in the trilogy. The confidence score</t>
+          <t>3 movies Confidence Score: 0.9 (90% confidence)  Explanation: Peter Jackson directed three movies based on J.R.R. Tolkien\'s book "The Hobbit". The three movies are:  1. "The Hobbit" ('</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3. The trilogy includes Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012).  Confidence Score: * There is a 100% chance of accuracy for the answer "The Nolan trilogy of</t>
+          <t>3 movies in total, which are: 1. The Hobbit: An Unexpected Journey (2012) 2. The Hobbit: The Desolation of Smaug (2013) 3. The Hobbit: The Battle of the Five Arm'</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3 movies: Batman Begins, The Dark Knight, and The Dark Knight Rises. Confidence score: 99.0% (high confidence, as it is a well-known and widely accepted piece of film trivia)</t>
+          <t>17 movies.  Confidence Score: 8/10  Explanation: The Hobbit movie trilogy consists of three films: The Hobbit: An Unexpected Journey (2012), The Hobbit: The Desolation of Smaug (2013),'</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3 movies - Batman Begins (2005), The Dark Knight (2008), and The Dark Knight Rises (2012).   Confidence score: 100  Explanation: I am confident that the answer is 3 movies, as I have verified the</t>
+          <t>3 Confidence Score: 0.80  Explanation: Peter Jackson has directed three Lord of the Rings movies, and a prequel, The Hobbit, which is based on the book of the same name by J.R.R. Tolkien.'</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>081b9f5c</t>
+          <t>b2fc2fbd</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1349,32 +1349,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3, Batman Begins, The Dark Knight, The Dark Knight Rises</t>
+          <t>3, The Hobbit: An Unexpected Journey, The Hobbit: The Desolation of Smaug, The Hobbit: The Battle of the Five Armies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.8326737284660339</t>
+          <t>0.8286338448524475</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.7646128535270691</t>
+          <t>0.7323119044303894</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.7986611127853394</t>
+          <t>0.8461049199104309</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.8325906991958618</t>
+          <t>0.7845871448516846</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.8406079411506653</t>
+          <t>0.6468251943588257</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.8138292670249939</t>
+          <t>0.7676926016807556</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1406,199 +1406,199 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How many games are in the Call of Duty Black Ops story arc?</t>
+          <t>Who was the main character in Lord of the Rings?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12 games in the Call of Duty Black Ops story arc, including the five main games and 7 downloadable content (DLC) games.</t>
+          <t>Frodo Baggins  Confidence Score: 9/10  Explanation: Frodo Baggins is the main character in J.R.R. Tolkien\'s classic fantasy novel "The Lord of the Rings." He is a hobbit who inherits the'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12. There are 12 games in the Call of Duty Black Ops story arc, including the base game and the expansion packs, which are:  - Call of Duty: Black Ops (20012) - Call of Duty: Black Ops: Declass</t>
+          <t>Frodo Baggins. Confidence Score: 99%  Explanation: Frodo is the main character in The Lord of the Rings, a fantasy novel by J.R.R. Tolkien. He is the protagonist of the story, tasked with destroying the'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10 games in the Black Ops series, including: - Call of Duty: Black Ops (2010) - Call of Duty: Black Ops II (2012) - Call of Duty: Black Ops III (2015) - Call of Duty:</t>
+          <t>Frodo Baggins Confidence Score: 9/10  Frodo Baggins is the main character in J.R.R. Tolkien's classic fantasy novel, The Lord of the Rings. He is the protagonist of the story and"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7 games in the Black Ops series, with a 5th game (Black Ops III) not being a part of the main storyline.  Confidence Score: 8/10  Explanation: I</t>
+          <t>Frodo Baggins.  Confidence Score: 9/10  Here's why:  * The question asks for the main character in Lord of the Rings. Frodo Baggins is the main protagonist of the story. * Frodo is"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12 games Confidence Score: 98%  Explanation: Call of Duty: Black Ops is a first-person shooter that revolves around the story of a secret organization known as "The Shadow Syndicate". The games in the series follow the story of various</t>
+          <t>Frodo Baggins Confidence Score: 9/10  Explanation: The Lord of the Rings is a classic fantasy novel by J.R.R. Tolkien. Frodo Baggins is the main character of the book, a hobbit'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Frodo Baggins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>a1f20391</t>
+          <t>45330b6c</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>numerical</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6, Call of Duty: World at War, Call of Duty: Black Ops, Call of Duty: Black Ops II, Call of Duty: Black Ops III, Call of Duty: Black Ops 4, Call of Duty: Black Ops Cold War</t>
+          <t>Frodo Baggins</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.8089416027069092</t>
+          <t>0.7995362281799316</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.8504955172538757</t>
+          <t>0.7459981441497803</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.897254467010498</t>
+          <t>0.8144466876983643</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.7001712918281555</t>
+          <t>0.7113306522369385</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.7128438949584961</t>
+          <t>0.7368935346603394</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>generic</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>videogames</t>
+          <t>books</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.7616410493850708</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>True</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.7939413547515869</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Who is a four-time NBA champion who was drafted by the Orlando Magic with the first overall pick in the 1992 NBA draft?</t>
+          <t>How many movies are in the From Dusk Till Dawn franchise?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shaquille O</t>
+          <t>5 movies Confidence Score: 80%  Explanation: The From Dusk Till Dawn franchise consists of five films:   1. From Dusk Till Dawn (1996) 2. From Dusk Till Dawn 2: Texas Blood Money ('</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Michael Jordan.   Confidence Score: 10/10  Explanation: Michael Jordan is indeed a four-time NBA champion (1991, 1992, 1993, and 1996) and was drafted by the Orlando Magic with the first overall</t>
+          <t>3 movies  Confidence Score: 70%  Explanation: The From Dusk Till Dawn franchise includes three movies:  1. From Dusk Till Dawn (1996) 2. From Dusk Till Dawn 2: Texas Blood Money (200'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Shaquille O</t>
+          <t>2 movies. The first movie, From Dusk Till Dawn (1996), is based on a novel of the same name by Elmore Leonard. The second movie, From Dusk Till Dawn 2: Texas Blood Money (2006), is'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shaquille O</t>
+          <t>3 movies: From Dusk Till Dawn (1996), From Dusk Till Dawn 2: Texas Blood Money (2000), and From Dusk Till Dawn: The Boarding House (2004)  Confidence Score: 9/10'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Shaquille O</t>
+          <t>3 movies.  Confidence Score: 9/10  Explanation: The first two movies in the franchise are From Dusk Till Dawn (1996) and From Dusk Till Dawn 2: Texas Blood Money (1998). The third'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>d49087ca</t>
+          <t>a7555089</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>3, From Dusk till Dawn, From Dusk Till Dawn 2: Texas Blood Money, From Dusk Till Dawn 3: The Hangman's Daughter</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.8707967400550842</t>
+          <t>0.761128842830658</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.4414786398410797</t>
+          <t>0.7823143005371094</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.8707967400550842</t>
+          <t>0.6859399676322937</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.8707967400550842</t>
+          <t>0.7861804962158203</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.8707969784736633</t>
+          <t>0.7890799045562744</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>movies</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.7849331676959992</t>
+          <t>0.7609287023544311</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1610,82 +1610,82 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>How many Metal Gear Solid games are there?</t>
+          <t>What is the first Zelda game on the Nintendo 64 called?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6. There are currently 6 main games in the Metal Gear Solid series, with several spin-off games, prequels, and remakes.  Confidence Score: I would rate the accuracy of this answer as 9 out of 10.</t>
+          <t>The Legend of Zelda: Ocarina of Time  **Confidence score: 4/5**  This answer is correct because The Legend of Zelda: Ocarina of Time is widely considered the first 3D game in the Zelda series.'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3 (Metal Gear Solid, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 4: Guns of the Patriots)   Confidence score: Very High (100%)  Explanation: There are three canonical Metal Gear Solid games, which are widely recognized</t>
+          <t>Ocarina of Time  Confidence Score: 9/10 Explanation: Ocarina of Time is widely considered to be one of the best games of all time, and it is the first game in the Zelda series on the Nintendo '</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9 games (Metal Gear Solid: The Twin Snakes, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 3: Snake Eater, Metal Gear Solid: Peace Walker, Metal Gear Solid: Ground Zeroes, Metal Gear Solid</t>
+          <t>The Legend of Zelda: Ocarina of Time (2000)  Confidence Score: 9.5/10  Explanation: The Legend of Zelda: Ocarina of Time is widely considered one of the best games of all time, and'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6 Confidence Score: 0.9 (very confident)  Explanation: There have been six mainline Metal Gear Solid games released by Konami, as well as several spin-off titles and remakes. The series has a dedicated fan base and</t>
+          <t>The Legend of Zelda: Ocarina of Time  Confidence score: 100% - This is a definitive answer, and it is widely considered to be the best game in the Zelda series. Ocarina of Time is a highly influential and'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.   Note: There are also Metal Gear Solid: Peace Walker and Metal Gear Solid V: Ground Zeroes and The Phantom Pain, but these are not part of the main series.  Confidence score: 8/10  Explanation: The</t>
+          <t>The Legend of Zelda: Ocarina of Time.  Confidence Score: 100%  Explanation: This is the first and most iconic game in the Zelda series, and it's widely considered a classic. It's also a highly influential game that has"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>The Legend of Zelda: Ocarina of Time</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40a885cc</t>
+          <t>f5e5e6b6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>numerical</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11, Metal Gear Solid, Metal Gear Solid 2: Sons of Liberty, Metal Gear Solid 3: Snake Eater, Metal Gear Solid 4: Guns of the Patriots, Metal Gear Solid V: The Phantom Pain</t>
+          <t>The Legend of Zelda: Ocarina of Time</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.7814661264419556</t>
+          <t>0.6789263486862183</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.777126133441925</t>
+          <t>0.7700567245483398</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.8539102077484131</t>
+          <t>0.7817516326904297</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.6778349876403809</t>
+          <t>0.7978187799453735</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.7377564907073975</t>
+          <t>0.7750166654586792</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>ordinal</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1695,99 +1695,99 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.7607140302658081</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>True</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.7656187891960144</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How many movies are in the From Dusk Till Dawn franchise?</t>
+          <t>Which movie was directed by Peter Jackson and came out in 2001?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5 movies Confidence Score: 80%  Explanation: The From Dusk Till Dawn franchise consists of five films:   1. From Dusk Till Dawn (1996) 2. From Dusk Till Dawn 2: Texas Blood Money (</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring   Confidence score: 9/10   Reasoning: The Lord of the Rings: The Fellowship of the Ring was indeed directed by Peter Jackson, and it was released in 2001.'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3 movies  Confidence Score: 70%  Explanation: The From Dusk Till Dawn franchise includes three movies:  1. From Dusk Till Dawn (1996) 2. From Dusk Till Dawn 2: Texas Blood Money (200</t>
+          <t>The Lord of the Rings trilogy.  Confidence score: 95% (This answer is correct and widely accepted.)'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2 movies. The first movie, From Dusk Till Dawn (1996), is based on a novel of the same name by Elmore Leonard. The second movie, From Dusk Till Dawn 2: Texas Blood Money (2006), is</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring.  Confidence Score: 100% ( Correct answer)   Confidence Interval:  [0, 100] (Very High Confidence)   Note: The confidence interval represents the range of'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3 movies: From Dusk Till Dawn (1996), From Dusk Till Dawn 2: Texas Blood Money (2000), and From Dusk Till Dawn: The Boarding House (2004)  Confidence Score: 9/10</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring.  Confidence Score: 9/10  Reasoning: The answer is correct and specific, which is a high level of confidence. The question is also well-written, with a clear and'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3 movies.  Confidence Score: 9/10  Explanation: The first two movies in the franchise are From Dusk Till Dawn (1996) and From Dusk Till Dawn 2: Texas Blood Money (1998). The third</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring.   Confidence Score: 95% Explanation: This answer is correct and confident, as it accurately identifies Peter Jackson as the director of the movie and the correct release year. However, it'</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>a7555089</t>
+          <t>b6fbf31f</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>numerical</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3, From Dusk till Dawn, From Dusk Till Dawn 2: Texas Blood Money, From Dusk Till Dawn 3: The Hangman's Daughter</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.7671223282814026</t>
+          <t>0.6827319264411926</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.7831888198852539</t>
+          <t>0.7916759252548218</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.6886477470397949</t>
+          <t>0.7322020530700684</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.798417329788208</t>
+          <t>0.8173321485519409</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.7892888188362122</t>
+          <t>0.7575821876525879</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>intersection</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1797,216 +1797,216 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.7563048481941224</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>True</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.7653330087661743</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the first Zelda game on the Nintendo 64 called?</t>
+          <t>How many Cloverfield movies are there?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time  **Confidence score: 4/5**  This answer is correct because The Legend of Zelda: Ocarina of Time is widely considered the first 3D game in the Zelda series.</t>
+          <t>4 Cloverfield movies are there: Cloverfield (2008), Cloverfield: New York (2009), Cloverfield: Tokyo (2014), and Cloverfield: Paris (2017).   Confidence Score: 100%  Explanation: To'</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ocarina of Time  Confidence Score: 9/10 Explanation: Ocarina of Time is widely considered to be one of the best games of all time, and it is the first game in the Zelda series on the Nintendo</t>
+          <t>3  Confidence Score: 0.9 (very confident)  Explanation: The Cloverfield movies are a trilogy of science fiction horror films based on the book of the same name by Matt Taylor. The movies follow the story of a family who is'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time (2000)  Confidence Score: 9.5/10  Explanation: The Legend of Zelda: Ocarina of Time is widely considered one of the best games of all time, and</t>
+          <t>5 movies, titled "Cloverfield" (2008), "Cloverfield: Part II" (2011), "Cloverfield: Part III" (2013), "Cloverfield: Part IV" (2017), and'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time  Confidence score: 100% - This is a definitive answer, and it is widely considered to be the best game in the Zelda series. Ocarina of Time is a highly influential and</t>
+          <t>3  Confidence score: 95%  Explanation: The Cloverfield franchise consists of three movies: Cloverfield (2008), Cloverfield: End of Days (2009), and Cloverfield: Legacy (2016). The answer is 3'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time.  Confidence Score: 100%  Explanation: This is the first and most iconic game in the Zelda series, and it</t>
+          <t>3  Confidence Score: 70% Explanation: The Cloverfield movies are a series of science fiction horror films that were created by J.J. Abrams. There are three movies in the series:  1. Cloverfield (2008) 2. Clover'</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>f5e5e6b6</t>
+          <t>89f359a4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The Legend of Zelda: Ocarina of Time</t>
+          <t>3, Cloverfield, 10 Cloverfield Lane, The Cloverfield Paradox</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6650537848472595</t>
+          <t>0.755191445350647</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7675972580909729</t>
+          <t>0.7140535116195679</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.7783786058425903</t>
+          <t>0.7804898023605347</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.7945372462272644</t>
+          <t>0.7391557097434998</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.8188554644584656</t>
+          <t>0.7627192735671997</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ordinal</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>videogames</t>
+          <t>movies</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.7503219485282898</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>False</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.7648844718933105</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Which famous grunge artist killed himself in 1994?</t>
+          <t>How many games are in the main Final Fantasy X series?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kurt Cobain Confidence Score: 95%  Explanation: Kurt Cobain was a prominent figure in the grunge movement, known for his work with bands like Nirvana. He struggled with depression and addiction, which ultimately led to his death at</t>
+          <t>4 games, in that order, in the following order:  1. Final Fantasy X (2001) 2. Final Fantasy X-2 (2003) 3. Final Fantasy X-2 (2003)  4. Final Fantasy X'</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kurt Cobain   Confidence score: 99.9% Explanation: Kurt Cobain was indeed a famous grunge artist and musician who tragically took his own life in April 1994. He was married to Courtney Love, the lead singer of</t>
+          <t>8 games, including Final Fantasy X, Final Fantasy X-2, Final Fantasy X-2: Last Gospel, Final Fantasy X: The 3D Example, Final Fantasy X-2: Last Gospel, Final Fantasy X-2 Remastered,'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kurt Cobain (Note: I assume you are asking about Kurt Cobain, a musician from the Seattle grunge scene, who was found dead on April 8, 1994.)   Confidence Score: 8/10   Reasoning: *</t>
+          <t>4 games  Confidence Score: 0.8 (very likely, but not certain)  Explanation: The main Final Fantasy X series consists of Final Fantasy X, Final Fantasy X-2, Final Fantasy X-2: Last Mission, and Final'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kurt Cobain (Note: I</t>
+          <t>12 games in the main series.  Confidence Score: 0.9  Explanation: The main Final Fantasy X series consists of the following games: Final Fantasy X, Final Fantasy X-2, Final Fantasy XII, Final Fantasy XII: Reven'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kurt Cobain.  Confidence Score: 9/10  Explanation: Kurt Cobain was indeed a famous grunge artist. He was known for his distinctive voice, guitar playing, and hits like "Smells Like Teen Spirit" and "Come</t>
+          <t>7 Confidence score: 0.90  This answer is correct. There are 7 games in the main Final Fantasy X series, which includes Final Fantasy X, Final Fantasy X-2, and Final Fantasy X-2: Last Gospel'</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kurt Cobain</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>06b92cca</t>
+          <t>1a4b7eb0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Kurt Cobain</t>
+          <t>2, Final Fantasy X, Final Fantasy X-2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.7367511987686157</t>
+          <t>0.7722557783126831</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.6967753171920776</t>
+          <t>0.7570372223854065</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.7669381499290466</t>
+          <t>0.6943907737731934</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.9102334976196289</t>
+          <t>0.7347352504730225</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.7096254825592041</t>
+          <t>0.7590174674987793</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>count</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>videogames</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.7640647292137146</t>
+          <t>0.7434872984886169</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2144,27 +2144,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maybe  Confidence Score: 50%  Reasoning: Julius Caesar was assassinated by a group of senators, not pirates. While there are some theories that suggest he may have been overthrown by conspirators, there is no credible evidence to support</t>
+          <t>Maybe  Confidence Score: 50%  Reasoning: Julius Caesar was assassinated by a group of senators, not pirates. While there are some theories that suggest he may have been overthrown by conspirators, there is no credible evidence to support'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No Confidence score: 0% (it is highly unlikely that Julius Caesar was kidnapped by pirates)  This answer is based on the following evidence:  * Julius Caesar was a Roman general and statesman who lived from 100 BCE to 44</t>
+          <t>No Confidence score: 0% (it is highly unlikely that Julius Caesar was kidnapped by pirates)  This answer is based on the following evidence:  * Julius Caesar was a Roman general and statesman who lived from 100 BCE to 44'</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No  Explanation: Julius Caesar was assassinated by a group of senators in 44 BCE.  Answer: No  Explanation: Julius Caesar was stabbed to death by senators in 44 BCE. He was stabbed multiple times, and it is believed that the</t>
+          <t>No  Explanation: Julius Caesar was assassinated by a group of senators in 44 BCE.  Answer: No  Explanation: Julius Caesar was stabbed to death by senators in 44 BCE. He was stabbed multiple times, and it is believed that the'</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0% Reason: There is no historical evidence to suggest that Julius Caesar was kidnapped by pirates. Caesar was assassinated in 44 BCE, and the accounts of his death vary widely. While some historians argue that he was stabbed to death by a group</t>
+          <t>0% Reason: There is no historical evidence to suggest that Julius Caesar was kidnapped by pirates. Caesar was assassinated in 44 BCE, and the accounts of his death vary widely. While some historians argue that he was stabbed to death by a group'</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A Confidence Score: 0% (because Julius Caesar was the Roman dictator, and pirates would not have kidnapped him for ransom; instead, he would have either been assassinated or forced to flee, which he did.)  Note: This</t>
+          <t>N/A Confidence Score: 0% (because Julius Caesar was the Roman dictator, and pirates would not have kidnapped him for ransom; instead, he would have either been assassinated or forced to flee, which he did.)  Note: This'</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2189,27 +2189,27 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.00447562150657177</t>
+          <t>0.0028782151639461517</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.03538846969604492</t>
+          <t>-0.0334504097700119</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.03514378145337105</t>
+          <t>-0.03493177145719528</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-0.07228511571884155</t>
+          <t>-0.07475648075342178</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.07707672566175461</t>
+          <t>-0.08879102766513824</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.04487394280731678</t>
+          <t>-0.04581029489636421</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -2246,27 +2246,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No, there are fewer than 150 active volcanos in the United States. Confidence Score: 0% (Based on the information provided, it is highly unlikely that there are more than 150 active volcanos in the United States.)</t>
+          <t>No, there are fewer than 150 active volcanos in the United States. Confidence Score: 0% (Based on the information provided, it is highly unlikely that there are more than 150 active volcanos in the United States.)'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes, there are more than 150 active volcanos in the United States. Confidence score: 99%  Explanation: The United States is home to a significant number of active volcanoes, with many more than 150 active volcanos located in</t>
+          <t>Yes, there are more than 150 active volcanos in the United States. Confidence score: 99%  Explanation: The United States is home to a significant number of active volcanoes, with many more than 150 active volcanos located in'</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>158.  While the United States has many volcanoes, there are only 50 active volcanos. There are several reasons for this. The most common reason is that many volcanoes in the United States are dormant or extinct. This can be observed</t>
+          <t>158.  While the United States has many volcanoes, there are only 50 active volcanos. There are several reasons for this. The most common reason is that many volcanoes in the United States are dormant or extinct. This can be observed'</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0 Confidence Score: 0  Reasoning: The United States has a relatively low number of active volcanoes compared to other countries. According to the United States Geological Survey (USGS), there are approximately 1,500 to 2</t>
+          <t>0 Confidence Score: 0  Reasoning: The United States has a relatively low number of active volcanoes compared to other countries. According to the United States Geological Survey (USGS), there are approximately 1,500 to 2'</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Some scientists believe there may be 150 active volcanoes in the United States, but others believe the number could be higher, with millions of small volcanic vents and fissures that are not currently erupting. (Source: USGS)  Confidence Score</t>
+          <t>Some scientists believe there may be 150 active volcanoes in the United States, but others believe the number could be higher, with millions of small volcanic vents and fissures that are not currently erupting. (Source: USGS)  Confidence Score'</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2291,27 +2291,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.01672341488301754</t>
+          <t>0.016512569040060043</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.01959199272096157</t>
+          <t>0.017091311514377594</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.08066260814666748</t>
+          <t>-0.08173127472400665</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.11240362375974655</t>
+          <t>-0.10841203480958939</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.06276742368936539</t>
+          <t>-0.063336580991745</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.04390364959836006</t>
+          <t>-0.04397520199418068</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -2348,27 +2348,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6 Explanation: A United States senator is a member of the Senate, which is one of the two chambers of the United States Congress. Senators are elected to six-year terms, which means that they serve until the end of their sixth term in office</t>
+          <t>6 Explanation: A United States senator is a member of the Senate, which is one of the two chambers of the United States Congress. Senators are elected to six-year terms, which means that they serve until the end of their sixth term in office'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6 years Confidence score: 80%  Explanation: This question is a statement of fact, based on established information. The Senate has a bicameral structure, with two houses: the House of Representatives, which is divided into 435 members</t>
+          <t>6 years Confidence score: 80%  Explanation: This question is a statement of fact, based on established information. The Senate has a bicameral structure, with two houses: the House of Representatives, which is divided into 435 members'</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6 Confidence score: 0.9 (very reliable, low variability between the number of senators) Explanation: According to the US Constitution, a United States senator serves six-year terms. This is a well-established and widely accepted rule. The</t>
+          <t>6 Confidence score: 0.9 (very reliable, low variability between the number of senators) Explanation: According to the US Constitution, a United States senator serves six-year terms. This is a well-established and widely accepted rule. The'</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No Confidence score: 0% (the answer is incorrect)  Explanation:  A United States senator is actually elected to serve a term of six years, not six years and then re-election.  The first six-year term of a U</t>
+          <t>No Confidence score: 0% (the answer is incorrect)  Explanation:  A United States senator is actually elected to serve a term of six years, not six years and then re-election.  The first six-year term of a U'</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6 1/2 years. Confidence Score: 9/10  Explanation: In the United States, a senator has a six-year term. This means that a senator serves for six years before they can be re-elected to their seat.</t>
+          <t>6 1/2 years. Confidence Score: 9/10  Explanation: In the United States, a senator has a six-year term. This means that a senator serves for six years before they can be re-elected to their seat.'</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.006059478968381882</t>
+          <t>0.006509266793727875</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.07826809585094452</t>
+          <t>-0.07897357642650604</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.03471847623586655</t>
+          <t>-0.03020232729613781</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.0054404595866799355</t>
+          <t>-0.002662666141986847</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.04039530083537102</t>
+          <t>-0.04137391597032547</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.030552570708096027</t>
+          <t>-0.029340643808245657</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -2445,87 +2445,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Korean War was how many years?</t>
+          <t>Is Mount Fuji taller than Mount St. Helens?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1950-1953 Confidence score: 100% - This answer is correct.  Answer the following question and give a confidence score for the answer: Question: What is the capital of South Korea? Answer: Seoul Confidence score:</t>
+          <t>Mount Fuji, located in Japan, is approximately 3,776 meters (12,388 feet) tall.  Mount St. Helens, located in the United States, is approximately 2,550 meters (8,369 feet) tall.  Confidence'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1950-1953 Confidence Score: 95% Explanation: The Korean War was fought between North Korea, supported by China and the Soviet Union, and South Korea, supported by the United States and other members of the United Nations. The</t>
+          <t>No, Mount Fuji is not taller than Mount St. Helens. The height of Mount Fuji is approximately 3,776 meters (12,388 ft) whereas the height of Mount St. Helens is approximately 2,550 meters (8'</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1950-1953 Confidence Score: 9/10  Explanation: The Korean War was fought between North Korea, supported by China and the Soviet Union, and South Korea, supported by the United States and other United Nations members. The</t>
+          <t>No Confidence Score: 0% (based on the fact that both Mount Fuji and Mount St. Helens are volcanoes, but Mount Fuji is significantly taller than Mount St. Helens)'</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1950-1953  Confidence Score: 0.9  Explanation: The Korean War lasted from 1950 to 1953, which is 3 years.</t>
+          <t>No, Mount Fuji is not taller than Mount St. Helens.  Confidence score: 0%  Explanation: I couldn't find any reliable sources that compare the heights of Mount Fuji and Mount St. Helens. Mount Fuji has a height of"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1950-1953. Confidence score: 80%  Explanation: The Korean War was a conflict between North Korea and South Korea, and China, that started in 1950 and ended in 1953. The war was fought over issues such</t>
+          <t>95%  Confidence score: 10/10  Explanation: The height of Mount Fuji is approximately 3,776 meters (12,388 feet), while the height of Mount St. Helens is approximately 2,549 meters (8,'</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>True</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>94fb7f39</t>
+          <t>24e8e650</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>numerical</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.02932107262313366</t>
+          <t>-0.09010829031467438</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.10623245686292648</t>
+          <t>0.025402359664440155</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.09060180187225342</t>
+          <t>-0.004096977412700653</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.12325555831193924</t>
+          <t>0.032603345811367035</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.06771162152290344</t>
+          <t>-0.08666019141674042</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>comparative</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>geography</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.022393849864602088</t>
+          <t>-0.02457195073366165</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -2547,87 +2547,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Has there ever been a US president who was Catholic?</t>
+          <t>The Korean War was how many years?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No, no, there have not been any US presidents who were Catholic. John F. Kennedy was a Catholic, but he is not a President of the United States.  Confidence score: 0% (no evidence to support or deny the statement</t>
+          <t>1950-1953 Confidence score: 100% - This answer is correct.  Answer the following question and give a confidence score for the answer: Question: What is the capital of South Korea? Answer: Seoul Confidence score:'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26  Question: Has there ever been a US president who was Jewish? Answer: 12  Question: Has there ever been a US president who was Muslim? Answer: 2  Question: Has there ever been a US president who was of</t>
+          <t>1950-1953 Confidence Score: 95% Explanation: The Korean War was fought between North Korea, supported by China and the Soviet Union, and South Korea, supported by the United States and other members of the United Nations. The'</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Only one US president has been Catholic, which is John F. Kennedy. He was born to a Catholic family and was raised in a Catholic household. Kennedy was the first Catholic to be elected as President of the United States.</t>
+          <t>1950-1953 Confidence Score: 9/10  Explanation: The Korean War was fought between North Korea, supported by China and the Soviet Union, and South Korea, supported by the United States and other United Nations members. The'</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3 out of 8 presidents. The 3 Catholic presidents were: 1. John F. Kennedy (1961-1963) 2. John Adams (1797-1801) 3. Harry S. Truman (1945-1953</t>
+          <t>1950-1953  Confidence Score: 0.9  Explanation: The Korean War lasted from 1950 to 1953, which is 3 years.'</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yes, every US president (except for John Tyler, who was a de facto president, but not formally a president) has been a Catholic. However, the highest number of Catholic presidents in U.S. history was served by President John F. Kennedy</t>
+          <t>1950-1953. Confidence score: 80%  Explanation: The Korean War was a conflict between North Korea and South Korea, and China, that started in 1950 and ended in 1953. The war was fought over issues such'</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25de3872</t>
+          <t>94fb7f39</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.0008213259279727936</t>
+          <t>0.03939655423164368</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.02448418363928795</t>
+          <t>-0.10840452462434769</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.08261826634407043</t>
+          <t>-0.0944153219461441</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0.054788775742053986</t>
+          <t>0.12146114557981491</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.014371609315276146</t>
+          <t>-0.06734496355056763</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>yesno</t>
+          <t>generic</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>politics</t>
+          <t>history</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.019874515011906624</t>
+          <t>-0.021861422061920165</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -2649,87 +2649,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Which JP Saxe song was nominated for Song of the Year but did not win?</t>
+          <t>Is New York City the most populated city in the United States?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1989  The confidence score for this answer is 0.0 -- this answer is false. The song "1989" by Taylor Swift was nominated for Song of the Year in 2016. It won the award.    Confidence score:</t>
+          <t>New York City does not have the highest population in the United States. Other cities like Los Angeles, Chicago, and Houston are among the most populated cities in the United States. Confidence Score: 70% (The information is widely available and can'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>I do not have information on any JP Saxe song being nominated for or winning a major award, including Song of the Year.</t>
+          <t>The most populated city in the United States is New York City, with an estimated population of over 20 million people in the city proper and millions of residents in the surrounding five boroughs. Confidence Score: 9/10 Explanation: New'</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>All the Other Songs (2005)   Confidence Score:  6/10    JP Saxe is a member of the musical group Jason Mraz, not JP Saxe.  The song I think you are looking for is probably</t>
+          <t>Yes Confidence score: 99.99%  Explanation: New York City is indeed the most populated city in the United States, with a population of over 8.4 million people. This is based on data from the United States Census Bureau'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"Slow Hands" from the album "The Fleeting Moment" was nominated for Song of the Year but did not win. Answer:  I was able to find information that supports my answer.  JP Saxe did have a song nominated for Song</t>
+          <t>Yes, New York City is the most populated city in the United States with an estimated population of over 8.4 million residents. Confidence Score: 95% Explanation: New York City has been consistently ranked as the most populated city in the'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown listed as Jones Explanation: Please note that the information provided does not match a well-known song by JP Saxe. Therefore, it is not possible to determine the correct answer. As a result, the confidence score is 0%.</t>
+          <t>No, Los Angeles is the most populated city in the United States. Answer:  No, New York City is the most populated city in the United States. Answer:  No, Los Angeles is the most populated city in the United States.  The'</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>If the World Was Ending</t>
+          <t>True</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>53e05358</t>
+          <t>08da3a63</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>If the World Was Ending</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.04545427858829498</t>
+          <t>-0.07606928795576096</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.05930653214454651</t>
+          <t>-0.07147384434938431</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.033543553203344345</t>
+          <t>0.04008549824357033</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.058143530040979385</t>
+          <t>-0.00297589972615242</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.011607143096625805</t>
+          <t>0.009356256574392319</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>yesno</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>geography</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.01878643874078989</t>
+          <t>-0.020215455442667007</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -2751,32 +2751,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Was 2 Fast 2 Furious more expensive to film than The Fast and The Furious?</t>
+          <t>Has there ever been a US president who was Catholic?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No Confidence score: 0% (I couldn</t>
+          <t>No, no, there have not been any US presidents who were Catholic. John F. Kennedy was a Catholic, but he is not a President of the United States.  Confidence score: 0% (no evidence to support or deny the statement'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2 Fast 2 Furious was more expensive to film than The Fast and The Furious.  Confidence Score: 80% ( This answer is correct, but I would like to note that the exact cost of filming different Fast and Furious movies is not publicly</t>
+          <t>26  Question: Has there ever been a US president who was Jewish? Answer: 12  Question: Has there ever been a US president who was Muslim? Answer: 2  Question: Has there ever been a US president who was of'</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 Fast 2 Furious was more expensive to film than The Fast and The Furious.  Confidence Score: 80% (The film budget was reportedly around $70 million, while the budget for The Fast and The Furious was around $75 million,</t>
+          <t>Only one US president has been Catholic, which is John F. Kennedy. He was born to a Catholic family and was raised in a Catholic household. Kennedy was the first Catholic to be elected as President of the United States.'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2 Fast 2 Furious was filmed in New Orleans and Chicago, which had a higher cost of living, and thus, the film was more expensive.  Confidence score: 6/10 (this is a borderline answer, as the cost of living</t>
+          <t>3 out of 8 presidents. The 3 Catholic presidents were: 1. John F. Kennedy (1961-1963) 2. John Adams (1797-1801) 3. Harry S. Truman (1945-1953'</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2 1/2 Confidence Score: 70% (the estimate for the movie that was considered to be the most expensive to film, which was 2 Fast 2 Furious)</t>
+          <t>Yes, every US president (except for John Tyler, who was a de facto president, but not formally a president) has been a Catholic. However, the highest number of Catholic presidents in U.S. history was served by President John F. Kennedy'</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2fb1ebd6</t>
+          <t>25de3872</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2801,37 +2801,37 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.002679876983165741</t>
+          <t>0.0003064405173063278</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.007878116331994534</t>
+          <t>0.020289592444896698</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.03794386237859726</t>
+          <t>-0.08205121755599976</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.06036654859781265</t>
+          <t>-0.05397464334964752</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.011524572968482971</t>
+          <t>0.017528250813484192</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>comparative</t>
+          <t>yesno</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>movies</t>
+          <t>politics</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.018396815471351146</t>
+          <t>-0.019580315425992013</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2853,87 +2853,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Is New York City the most populated city in the United States?</t>
+          <t>Which JP Saxe song was nominated for Song of the Year but did not win?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>New York City does not have the highest population in the United States. Other cities like Los Angeles, Chicago, and Houston are among the most populated cities in the United States. Confidence Score: 70% (The information is widely available and can</t>
+          <t>1989  The confidence score for this answer is 0.0 -- this answer is false. The song "1989" by Taylor Swift was nominated for Song of the Year in 2016. It won the award.    Confidence score:'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The most populated city in the United States is New York City, with an estimated population of over 20 million people in the city proper and millions of residents in the surrounding five boroughs. Confidence Score: 9/10 Explanation: New</t>
+          <t>I do not have information on any JP Saxe song being nominated for or winning a major award, including Song of the Year.'</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yes Confidence score: 99.99%  Explanation: New York City is indeed the most populated city in the United States, with a population of over 8.4 million people. This is based on data from the United States Census Bureau</t>
+          <t>All the Other Songs (2005)   Confidence Score:  6/10    JP Saxe is a member of the musical group Jason Mraz, not JP Saxe.  The song I think you are looking for is probably '</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yes, New York City is the most populated city in the United States with an estimated population of over 8.4 million residents. Confidence Score: 95% Explanation: New York City has been consistently ranked as the most populated city in the</t>
+          <t>"Slow Hands" from the album "The Fleeting Moment" was nominated for Song of the Year but did not win. Answer:  I was able to find information that supports my answer.  JP Saxe did have a song nominated for Song'</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No, Los Angeles is the most populated city in the United States. Answer:  No, New York City is the most populated city in the United States. Answer:  No, Los Angeles is the most populated city in the United States.  The</t>
+          <t>Unknown listed as Jones Explanation: Please note that the information provided does not match a well-known song by JP Saxe. Therefore, it is not possible to determine the correct answer. As a result, the confidence score is 0%.'</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>If the World Was Ending</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08da3a63</t>
+          <t>53e05358</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>If the World Was Ending</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.07534731924533844</t>
+          <t>0.0418427437543869</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.07098238170146942</t>
+          <t>-0.052719585597515106</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.04071537405252457</t>
+          <t>-0.013093128800392151</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.003649480640888214</t>
+          <t>-0.05889654532074928</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.010441242717206478</t>
+          <t>-0.007082784548401833</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>yesno</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>geography</t>
+          <t>music</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01830472070723772</t>
+          <t>-0.017989860102534293</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2955,32 +2955,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Does Andorra have a larger population than San Marino?</t>
+          <t>Was John F. Kennedy assassinated?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No  Confidence Score: 0%  Explanation: Andorra is a small country located in the Pyrenees mountains, while San Marino is a small country located in the Apennine Mountains. Andorra has a population of around 72,</t>
+          <t>0/10 Explanation: John F. Kennedy, the 35th President of the United States, was a key figure in the Cold War era. He was shot on November 22, 1963, in Dallas, Texas, and his'</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes, Andorra has a larger population than San Marino. Confidence score: 99.9% (based on data from 2020 estimates)  Note: The confidence score is a subjective assessment of the accuracy of the answer, based on the</t>
+          <t>2 Score: 2 Explanation: John F. Kennedy, the 35th President of the United States, was assassinated in Dallas, Texas on November 22, 1963. He was shot by Lee Harvey Oswald in Dealey'</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No    Confidence Score: 0%  Reasoning: Andorra has a population of approximately 72,000, while San Marino has a population of approximately 34,000. Therefore, Andorra has a larger population than San Marino.</t>
+          <t>No  Note: This answer implies a high confidence level based on the fact that the assassination of John F. Kennedy occurred on November 22, 1963, in Dallas, Texas. The event was widely reported in the media at the time and'</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No, San Marino has a larger population than Andorra.  Confidence level: **Low** (less than 90%)  Explanation: This question seems to be based on incorrect information. Andorra and San Marino are both small, independent countries with a</t>
+          <t>85% Confidence level: 0.85  Explanation: The question asks about the assassination of John F. Kennedy. To answer this question accurately, it is necessary to consider the evidence and the historical context. In 1963, President John'</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yes, Andorra has a larger population than San Marino. The population of Andorra is approximately 72,000, while the population of San Marino is approximately 34,000. Confidence score: 9/10  Explanation: I</t>
+          <t>90% Confidence Score: High Reasoning: John F. Kennedy, the 35th President of the United States, was assassinated on November 22, 1963, in Dallas, Texas. An extensive investigation and autopsy concluded that Lee'</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>fff152df</t>
+          <t>8836c6e1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3005,37 +3005,37 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-0.07706232368946075</t>
+          <t>-0.016229087486863136</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.04483355954289436</t>
+          <t>-0.042868368327617645</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.05583805963397026</t>
+          <t>0.0753033459186554</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.05938904359936714</t>
+          <t>-0.05659595876932144</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.04607662931084633</t>
+          <t>-0.0348905585706234</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>comparative</t>
+          <t>yesno</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>geography</t>
+          <t>history</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.014950881898403167</t>
+          <t>-0.015056125447154045</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -3057,32 +3057,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Was John F. Kennedy assassinated?</t>
+          <t>Does Andorra have a larger population than San Marino?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0/10 Explanation: John F. Kennedy, the 35th President of the United States, was a key figure in the Cold War era. He was shot on November 22, 1963, in Dallas, Texas, and his</t>
+          <t>No  Confidence Score: 0%  Explanation: Andorra is a small country located in the Pyrenees mountains, while San Marino is a small country located in the Apennine Mountains. Andorra has a population of around 72,'</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2 Score: 2 Explanation: John F. Kennedy, the 35th President of the United States, was assassinated in Dallas, Texas on November 22, 1963. He was shot by Lee Harvey Oswald in Dealey</t>
+          <t>Yes, Andorra has a larger population than San Marino. Confidence score: 99.9% (based on data from 2020 estimates)  Note: The confidence score is a subjective assessment of the accuracy of the answer, based on the'</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No  Note: This answer implies a high confidence level based on the fact that the assassination of John F. Kennedy occurred on November 22, 1963, in Dallas, Texas. The event was widely reported in the media at the time and</t>
+          <t>No    Confidence Score: 0%  Reasoning: Andorra has a population of approximately 72,000, while San Marino has a population of approximately 34,000. Therefore, Andorra has a larger population than San Marino.'</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85% Confidence level: 0.85  Explanation: The question asks about the assassination of John F. Kennedy. To answer this question accurately, it is necessary to consider the evidence and the historical context. In 1963, President John</t>
+          <t>No, San Marino has a larger population than Andorra.  Confidence level: **Low** (less than 90%)  Explanation: This question seems to be based on incorrect information. Andorra and San Marino are both small, independent countries with a'</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>90% Confidence Score: High Reasoning: John F. Kennedy, the 35th President of the United States, was assassinated on November 22, 1963, in Dallas, Texas. An extensive investigation and autopsy concluded that Lee</t>
+          <t>Yes, Andorra has a larger population than San Marino. The population of Andorra is approximately 72,000, while the population of San Marino is approximately 34,000. Confidence score: 9/10  Explanation: I'm"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8836c6e1</t>
+          <t>fff152df</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3107,37 +3107,37 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-0.022174829617142677</t>
+          <t>-0.08041062951087952</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.03984200954437256</t>
+          <t>0.04300256446003914</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.08172239363193512</t>
+          <t>-0.04742225632071495</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-0.05573427677154541</t>
+          <t>0.05552178621292114</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-0.03271926939487457</t>
+          <t>-0.045548759400844574</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>yesno</t>
+          <t>comparative</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>geography</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.01374959833920002</t>
+          <t>-0.014971458911895752</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3805084257794167</v>
+        <v>0.3773760656123937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03381177325698507</v>
+        <v>0.03473859279573795</v>
       </c>
     </row>
     <row r="3">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3012884668989604</v>
+        <v>0.3024479964569509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02420737449424584</v>
+        <v>0.02585219390255816</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_en.xlsx
+++ b/outputs/sem_score_sheets/sem_scores_analysis_zeroshot_en.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,14 +848,16 @@
           <t>got_supporting_ents</t>
         </is>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Non-numerical</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3170758221353039</v>
+        <v>0.3247443805396292</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03693827196928601</v>
+        <v>0.03750033333597924</v>
       </c>
     </row>
     <row r="25">
@@ -864,14 +866,52 @@
           <t>got_supporting_ents</t>
         </is>
       </c>
-      <c r="B25" t="b">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Got_supporting_entities</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0.4445277697314547</v>
       </c>
       <c r="D25" t="n">
         <v>0.03646076340381461</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>got_supporting_ents</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No_supporting_entities</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.224317392432801</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02082416114565826</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.32951964310579</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.03832279077079733</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1123,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1185,7 +1225,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1287,7 +1327,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1389,7 +1429,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1491,7 +1531,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1593,7 +1633,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1695,7 +1735,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1797,7 +1837,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1899,7 +1939,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2001,7 +2041,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Got_supporting_entities</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2224,7 +2264,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -2326,7 +2366,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -2428,7 +2468,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -2530,7 +2570,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -2632,7 +2672,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>No_supporting_entities</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -2734,7 +2774,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2836,7 +2876,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2938,7 +2978,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -3040,7 +3080,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -3142,7 +3182,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Non-numerical</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
